--- a/Resources/bushfire_data_raw.xlsx
+++ b/Resources/bushfire_data_raw.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vanessaj/Desktop/UWABootCamp/DISNEY-DONUT-PROJECT copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vanessaj/Desktop/UWABootCamp/DISNEY-DONUT-PROJECT/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681F0311-C3DF-484D-BF1F-B1CBAB0A8CFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3191DF-79EA-4E4D-AF41-F60A05CDF117}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{7860FE2F-748F-A84C-8B9A-49445261FC8C}"/>
   </bookViews>
   <sheets>
     <sheet name="cleaned" sheetId="1" r:id="rId1"/>
-    <sheet name="raw" sheetId="2" r:id="rId2"/>
+    <sheet name="cpi" sheetId="3" r:id="rId2"/>
+    <sheet name="raw" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cleaned!$A$1:$N$102</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="262">
   <si>
     <t>year</t>
   </si>
@@ -801,15 +805,6 @@
     <t>approximately 10,200 kilometres (6,300 mi) of fencing, 95 cattle, 6850 sheep</t>
   </si>
   <si>
-    <t>cattle_sheep</t>
-  </si>
-  <si>
-    <t>cattle_general</t>
-  </si>
-  <si>
-    <t>approx_value_loss</t>
-  </si>
-  <si>
     <t>three churches, a shopping centre and a hospital</t>
   </si>
   <si>
@@ -855,26 +850,121 @@
     <t>Beerburrum State Forest and urban fires along Sunshine Coast</t>
   </si>
   <si>
-    <t>September 2006 – January 2008</t>
-  </si>
-  <si>
-    <t>September 2006 – January 2009</t>
-  </si>
-  <si>
-    <t>September 2006 – January 2010</t>
-  </si>
-  <si>
-    <t>September 2006 – January 2011</t>
+    <t>cattle sheep</t>
+  </si>
+  <si>
+    <t>cattle general</t>
+  </si>
+  <si>
+    <t>approx value loss</t>
+  </si>
+  <si>
+    <t>SeriesID</t>
+  </si>
+  <si>
+    <t>CPI Index (Original)</t>
+  </si>
+  <si>
+    <t>Annual Average % (Original)</t>
+  </si>
+  <si>
+    <t>CPI Index (Seasonally Adjusted)</t>
+  </si>
+  <si>
+    <t>Annual Average % (Seasonally Adjusted)</t>
+  </si>
+  <si>
+    <t>June 2019-May 2020</t>
+  </si>
+  <si>
+    <t>June 2019-May 2021</t>
+  </si>
+  <si>
+    <t>June 2019-May 2022</t>
+  </si>
+  <si>
+    <t>June 2019-May 2023</t>
+  </si>
+  <si>
+    <t>June 2019-May 2024</t>
+  </si>
+  <si>
+    <t>June 2019-May 2025</t>
+  </si>
+  <si>
+    <t>June 2019-May 2026</t>
+  </si>
+  <si>
+    <t>June 2019-May 2027</t>
+  </si>
+  <si>
+    <t>https:https://www.parliament.wa.gov.au/publications/tabledpapers.nsf/displaypaper/3812490a15e91e49b4cf2144482577a1000784f3/$file/2490+-+fesa+-+bush+fire+investigation+report.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cfs.sa.gov.au/about-cfs/history-of-the-cfs/bushfire-history/</t>
+  </si>
+  <si>
+    <t>destroyed 80 timber bridges, 5 400km of fencing and 1 500 vehicles</t>
+  </si>
+  <si>
+    <t>Kempton and Broadmarsh fires</t>
+  </si>
+  <si>
+    <t>Coal River Valley</t>
+  </si>
+  <si>
+    <t>Heemskirk</t>
+  </si>
+  <si>
+    <t>Wayatinah</t>
+  </si>
+  <si>
+    <t>Lake Macintosh</t>
+  </si>
+  <si>
+    <t>Montagu</t>
+  </si>
+  <si>
+    <t>Evandale</t>
+  </si>
+  <si>
+    <t>Powranna</t>
+  </si>
+  <si>
+    <t>Meadowbank</t>
+  </si>
+  <si>
+    <t>Symmonds Plains</t>
+  </si>
+  <si>
+    <t>http://www.dpac.tas.gov.au/__data/assets/pdf_file/0020/208136/Tasmanian_Bushfire_Inquiry_Part_B.pdf</t>
+  </si>
+  <si>
+    <t>http://edition.cnn.com/WORLD/9712/04/australia.fires/</t>
+  </si>
+  <si>
+    <t>£1,250,000</t>
+  </si>
+  <si>
+    <t>https://trove.nla.gov.au/newspaper/article/91251744</t>
+  </si>
+  <si>
+    <t>approx value loss (current $)</t>
+  </si>
+  <si>
+    <t>sources</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-C09]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -938,6 +1028,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -962,11 +1059,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1052,9 +1150,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1065,23 +1160,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1090,14 +1188,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1411,13 +1520,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7935F0-3A99-A643-9F9E-039E9327CF2D}">
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.6640625" style="25" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="31" customWidth="1"/>
@@ -1426,12 +1536,13 @@
     <col min="5" max="6" width="14" style="12" customWidth="1"/>
     <col min="7" max="8" width="14" style="16" customWidth="1"/>
     <col min="9" max="12" width="14" style="12" customWidth="1"/>
-    <col min="13" max="13" width="89.5" style="12" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="12" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="12"/>
+    <col min="13" max="13" width="17" style="12" customWidth="1"/>
+    <col min="14" max="14" width="89.5" style="12" customWidth="1"/>
+    <col min="15" max="15" width="116.5" style="12" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="28" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="28" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>209</v>
       </c>
@@ -1450,29 +1561,35 @@
       <c r="F1" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>190</v>
       </c>
       <c r="I1" s="28" t="s">
         <v>191</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="M1" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="N1" s="28" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="O1" s="28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -1507,12 +1624,13 @@
         <v>2000</v>
       </c>
       <c r="L2" s="17"/>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="N2" s="18"/>
-    </row>
-    <row r="3" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
@@ -1543,11 +1661,12 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
-      <c r="M3" s="12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="M3" s="17"/>
+      <c r="N3" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
         <v>18</v>
       </c>
@@ -1578,9 +1697,10 @@
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
-      <c r="N4" s="18"/>
-    </row>
-    <row r="5" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M4" s="17"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="24" t="s">
         <v>20</v>
       </c>
@@ -1611,9 +1731,10 @@
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M5" s="17"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>14258</v>
       </c>
@@ -1644,9 +1765,10 @@
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M6" s="17"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
         <v>23</v>
       </c>
@@ -1677,9 +1799,10 @@
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="M7" s="17"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>16394</v>
       </c>
@@ -1705,9 +1828,10 @@
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="N8" s="18"/>
-    </row>
-    <row r="9" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M8" s="17"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
         <v>29</v>
       </c>
@@ -1738,9 +1862,10 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="M9" s="17"/>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>20091</v>
       </c>
@@ -1771,9 +1896,10 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
-      <c r="N10" s="18"/>
-    </row>
-    <row r="11" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M10" s="17"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="24">
         <v>21154</v>
       </c>
@@ -1802,14 +1928,18 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+      <c r="M11" s="51">
+        <f>20552673.5*1.8</f>
+        <v>36994812.300000004</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>21156</v>
       </c>
@@ -1826,16 +1956,26 @@
       <c r="G12" s="16">
         <v>0</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="19">
+        <v>100</v>
+      </c>
       <c r="I12" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="L12" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="M12" s="17">
+        <f>(1250000*1.8)*(1+(cpi!$C$73/cpi!C10-1))</f>
+        <v>36521052.631578952</v>
+      </c>
+      <c r="O12" s="57" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="24" t="s">
         <v>39</v>
       </c>
@@ -1866,9 +2006,10 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M13" s="17"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
         <v>42</v>
       </c>
@@ -1894,9 +2035,10 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M14" s="17"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="24" t="s">
         <v>44</v>
       </c>
@@ -1929,12 +2071,13 @@
         <v>4000</v>
       </c>
       <c r="L15" s="17"/>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="17"/>
+      <c r="N15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="24" t="s">
         <v>48</v>
       </c>
@@ -1965,9 +2108,10 @@
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M16" s="17"/>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="24">
         <v>24510</v>
       </c>
@@ -1990,19 +2134,28 @@
         <v>62</v>
       </c>
       <c r="H17" s="20">
-        <v>1293</v>
+        <v>1400</v>
       </c>
       <c r="I17" s="12">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="K17" s="17">
+        <v>62000</v>
+      </c>
       <c r="L17" s="17">
         <v>14000000</v>
       </c>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M17" s="50">
+        <f>L17*(1+(cpi!$C$73/cpi!C20)-1)</f>
+        <v>185040000</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="24" t="s">
         <v>51</v>
       </c>
@@ -2033,9 +2186,10 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M18" s="17"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
         <v>25171</v>
       </c>
@@ -2065,12 +2219,16 @@
       <c r="L19" s="17">
         <v>3000000</v>
       </c>
-      <c r="M19" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="N19" s="13"/>
-    </row>
-    <row r="20" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M19" s="50">
+        <f>L19*(1+(cpi!$C$73/cpi!C21-1))</f>
+        <v>38337016.574585631</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="24">
         <v>25211</v>
       </c>
@@ -2100,9 +2258,10 @@
         <v>12000</v>
       </c>
       <c r="L20" s="17"/>
-      <c r="N20" s="13"/>
-    </row>
-    <row r="21" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M20" s="17"/>
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="24" t="s">
         <v>57</v>
       </c>
@@ -2133,163 +2292,199 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="M21" s="17"/>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="31">
         <v>1975</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="36" t="s">
         <v>210</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="35">
         <v>4500000</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="35">
         <v>11000000</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="38">
         <v>6</v>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="38"/>
       <c r="I22" s="22"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="22" t="s">
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="17">
+        <f>5000000*(E22/SUM($E$22:$E$26))</f>
+        <v>221021.61100196463</v>
+      </c>
+      <c r="M22" s="53">
+        <f>L22*(1+(cpi!$C$73/cpi!$C$28-1))</f>
+        <v>1704076.6208251473</v>
+      </c>
+      <c r="N22" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="N22" s="18"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="O22" s="18"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="24" t="s">
         <v>193</v>
       </c>
       <c r="B23" s="31">
         <v>1975</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="36" t="s">
         <v>210</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="35">
         <v>45000000</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="35">
         <v>110000000</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
       <c r="I23" s="22"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36">
+      <c r="J23" s="35"/>
+      <c r="K23" s="35">
         <v>57000</v>
       </c>
-      <c r="L23" s="36"/>
-      <c r="M23" s="22" t="s">
+      <c r="L23" s="17">
+        <f t="shared" ref="L23:L26" si="0">5000000*(E23/SUM($E$22:$E$26))</f>
+        <v>2210216.1100196461</v>
+      </c>
+      <c r="M23" s="53">
+        <f>L23*(1+(cpi!$C$73/cpi!$C$28-1))</f>
+        <v>17040766.208251473</v>
+      </c>
+      <c r="N23" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="O23" s="18"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="31">
         <v>1975</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>210</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="35">
         <v>7300000</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="35">
         <v>18000000</v>
       </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="36">
+      <c r="J24" s="35">
         <v>6850</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="35">
         <v>95</v>
       </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="22" t="s">
+      <c r="L24" s="17">
+        <f t="shared" si="0"/>
+        <v>358546.16895874264</v>
+      </c>
+      <c r="M24" s="53">
+        <f>L24*(1+(cpi!$C$73/cpi!$C$28-1))</f>
+        <v>2764390.9626719058</v>
+      </c>
+      <c r="N24" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="N24" s="18"/>
-    </row>
-    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="O24" s="18"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="24" t="s">
         <v>193</v>
       </c>
       <c r="B25" s="31">
         <v>1975</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="36" t="s">
         <v>210</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="35">
         <v>16000000</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="35">
         <v>37000000</v>
       </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="18"/>
-    </row>
-    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="17">
+        <f t="shared" si="0"/>
+        <v>785854.61689587426</v>
+      </c>
+      <c r="M25" s="53">
+        <f>L25*(1+(cpi!$C$73/cpi!$C$28-1))</f>
+        <v>6058939.0962671908</v>
+      </c>
+      <c r="N25" s="22"/>
+      <c r="O25" s="18"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="24" t="s">
         <v>193</v>
       </c>
       <c r="B26" s="31">
         <v>1975</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="36" t="s">
         <v>210</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="35">
         <v>29000000</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="35">
         <v>72000000</v>
       </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="22"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="18"/>
-    </row>
-    <row r="27" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="17">
+        <f t="shared" si="0"/>
+        <v>1424361.4931237721</v>
+      </c>
+      <c r="M26" s="53">
+        <f>L26*(1+(cpi!$C$73/cpi!$C$28-1))</f>
+        <v>10981827.111984283</v>
+      </c>
+      <c r="N26" s="22"/>
+      <c r="O26" s="18"/>
+    </row>
+    <row r="27" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="24">
         <v>28168</v>
       </c>
@@ -2322,9 +2517,13 @@
       <c r="L27" s="17">
         <v>9000000</v>
       </c>
-      <c r="N27" s="13"/>
-    </row>
-    <row r="28" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M27" s="50">
+        <f>L27*(1+(cpi!$C$73/cpi!C30-1))</f>
+        <v>54070129.870129868</v>
+      </c>
+      <c r="O27" s="13"/>
+    </row>
+    <row r="28" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="24">
         <v>28476</v>
       </c>
@@ -2355,9 +2554,10 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
-      <c r="N28" s="13"/>
-    </row>
-    <row r="29" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M28" s="17"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="24">
         <v>28584</v>
       </c>
@@ -2388,9 +2588,10 @@
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
-      <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M29" s="17"/>
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="24">
         <v>29190</v>
       </c>
@@ -2418,9 +2619,10 @@
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
-      <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M30" s="17"/>
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="24">
         <v>29528</v>
       </c>
@@ -2451,9 +2653,10 @@
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
-      <c r="N31" s="13"/>
-    </row>
-    <row r="32" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M31" s="17"/>
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="24">
         <v>29271</v>
       </c>
@@ -2461,7 +2664,7 @@
         <v>1980</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>32</v>
@@ -2482,375 +2685,408 @@
       <c r="L32" s="17">
         <v>13000000</v>
       </c>
-      <c r="N32" s="13"/>
-    </row>
-    <row r="33" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M32" s="50">
+        <f>L32*(1+(cpi!$C$73/cpi!C33-1))</f>
+        <v>59719960.278053619</v>
+      </c>
+      <c r="O32" s="13"/>
+    </row>
+    <row r="33" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="24">
+        <v>29983</v>
+      </c>
+      <c r="B33" s="31">
+        <v>1982</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="17">
+        <v>5000</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="19">
+        <v>1</v>
+      </c>
+      <c r="I33" s="12">
+        <f>38+8</f>
+        <v>46</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17">
+        <v>3000</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="50"/>
+      <c r="O33" s="13"/>
+    </row>
+    <row r="34" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A34" s="24">
         <v>30325</v>
-      </c>
-      <c r="B33" s="31">
-        <v>1983</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="17">
-        <v>60000</v>
-      </c>
-      <c r="G33" s="19">
-        <v>3</v>
-      </c>
-      <c r="H33" s="16">
-        <v>0</v>
-      </c>
-      <c r="I33" s="12">
-        <v>0</v>
-      </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17">
-        <v>3000000</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="N33" s="13"/>
-    </row>
-    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A34" s="24">
-        <v>30363</v>
       </c>
       <c r="B34" s="31">
         <v>1983</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="17">
+        <v>60000</v>
+      </c>
+      <c r="G34" s="19">
+        <v>3</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <v>0</v>
+      </c>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17">
+        <v>3000000</v>
+      </c>
+      <c r="M34" s="50">
+        <f>L34*(1+(cpi!$C$73/cpi!C36-1))</f>
+        <v>10242066.420664208</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="O34" s="13"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A35" s="24">
+        <v>30363</v>
+      </c>
+      <c r="B35" s="31">
+        <v>1983</v>
+      </c>
+      <c r="C35" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D35" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E35" s="17">
         <v>418000</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F35" s="17">
         <v>1030000</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G35" s="16">
         <v>75</v>
       </c>
-      <c r="H34" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0</v>
-      </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17">
+      <c r="H35" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0</v>
+      </c>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17">
         <v>19300</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L35" s="17">
         <v>176000000</v>
       </c>
-      <c r="N34" s="18"/>
-    </row>
-    <row r="35" spans="1:14" ht="28" x14ac:dyDescent="0.15">
-      <c r="A35" s="24">
+      <c r="M35" s="50">
+        <f>L35*(1+(cpi!$C$73/cpi!C36-1))</f>
+        <v>600867896.67896688</v>
+      </c>
+      <c r="O35" s="18"/>
+    </row>
+    <row r="36" spans="1:15" s="22" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A36" s="54">
         <v>31041</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B36" s="31">
         <v>1984</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C36" s="34" t="s">
         <v>76</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="17">
-        <v>500000</v>
-      </c>
-      <c r="F35" s="17">
-        <v>1200000</v>
-      </c>
-      <c r="G35" s="16">
-        <v>0</v>
-      </c>
-      <c r="H35" s="16">
-        <v>0</v>
-      </c>
-      <c r="I35" s="12">
-        <v>0</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="N35" s="18"/>
-    </row>
-    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A36" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="31">
-        <v>1985</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>80</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="17">
-        <v>516000</v>
-      </c>
-      <c r="F36" s="17">
-        <v>1280000</v>
-      </c>
-      <c r="G36" s="16">
-        <v>0</v>
-      </c>
-      <c r="H36" s="16">
-        <v>0</v>
-      </c>
-      <c r="I36" s="12">
-        <v>0</v>
-      </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="12" t="s">
+      <c r="E36" s="35">
+        <v>500000</v>
+      </c>
+      <c r="F36" s="35">
+        <v>1200000</v>
+      </c>
+      <c r="G36" s="38">
+        <v>0</v>
+      </c>
+      <c r="H36" s="38">
+        <v>0</v>
+      </c>
+      <c r="I36" s="22">
+        <v>0</v>
+      </c>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35">
+        <f>(40000)*(E36/SUM($E$36:$E$38))</f>
+        <v>5714.2857142857138</v>
+      </c>
+      <c r="L36" s="35">
+        <f>(40000000-$L$38)*(E36/SUM($E$36:$E$37))</f>
+        <v>7381889.7637795275</v>
+      </c>
+      <c r="M36" s="55">
+        <f>L36*(1+(cpi!$C$73/cpi!C38-1))</f>
+        <v>22614981.488241125</v>
+      </c>
+      <c r="N36" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="N36" s="18"/>
-    </row>
-    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A37" s="24" t="s">
-        <v>81</v>
+      <c r="O36" s="39"/>
+    </row>
+    <row r="37" spans="1:15" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A37" s="54" t="s">
+        <v>79</v>
       </c>
       <c r="B37" s="31">
         <v>1985</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>82</v>
+      <c r="C37" s="34" t="s">
+        <v>80</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="17">
-        <f>3500000-E36-E35</f>
-        <v>2484000</v>
-      </c>
-      <c r="F37" s="17">
-        <f>8600000-F36-F35</f>
-        <v>6120000</v>
-      </c>
-      <c r="G37" s="16">
-        <v>5</v>
-      </c>
-      <c r="H37" s="16">
-        <v>0</v>
-      </c>
-      <c r="I37" s="12">
-        <v>0</v>
-      </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36">
-        <v>40000</v>
-      </c>
-      <c r="L37" s="36">
-        <v>25000000</v>
-      </c>
-      <c r="M37" s="12" t="s">
+      <c r="E37" s="35">
+        <v>516000</v>
+      </c>
+      <c r="F37" s="35">
+        <v>1280000</v>
+      </c>
+      <c r="G37" s="38">
+        <v>0</v>
+      </c>
+      <c r="H37" s="38">
+        <v>0</v>
+      </c>
+      <c r="I37" s="22">
+        <v>0</v>
+      </c>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35">
+        <f>(40000)*(E37/SUM($E$36:$E$38))</f>
+        <v>5897.1428571428578</v>
+      </c>
+      <c r="L37" s="35">
+        <f>(40000000-$L$38)*(E37/SUM($E$36:$E$37))</f>
+        <v>7618110.2362204725</v>
+      </c>
+      <c r="M37" s="55">
+        <f>L37*(1+(cpi!$C$73/cpi!C38-1))</f>
+        <v>23338660.895864841</v>
+      </c>
+      <c r="N37" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="N37" s="18"/>
-    </row>
-    <row r="38" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A38" s="24">
-        <v>31061</v>
+      <c r="O37" s="39"/>
+    </row>
+    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A38" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="B38" s="31">
         <v>1985</v>
       </c>
       <c r="C38" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="17">
+        <f>3500000-E37-E36</f>
+        <v>2484000</v>
+      </c>
+      <c r="F38" s="17">
+        <f>8600000-F37-F36</f>
+        <v>6120000</v>
+      </c>
+      <c r="G38" s="16">
+        <v>5</v>
+      </c>
+      <c r="H38" s="16">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35">
+        <f>(40000)*(E38/SUM($E$36:$E$38))</f>
+        <v>28388.571428571431</v>
+      </c>
+      <c r="L38" s="35">
+        <v>25000000</v>
+      </c>
+      <c r="M38" s="50">
+        <f>L38*(1+(cpi!$C$73/cpi!C38-1))</f>
+        <v>76589403.973509938</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="O38" s="18"/>
+    </row>
+    <row r="39" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A39" s="24">
+        <v>31061</v>
+      </c>
+      <c r="B39" s="31">
+        <v>1985</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D39" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E39" s="17">
         <v>50800</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F39" s="17">
         <v>126000</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G39" s="16">
         <v>3</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H39" s="16">
         <v>180</v>
       </c>
-      <c r="I38" s="12">
-        <v>0</v>
-      </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="N38" s="13"/>
-    </row>
-    <row r="39" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A39" s="24">
-        <v>33527</v>
-      </c>
-      <c r="B39" s="31">
-        <v>1991</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="16">
-        <v>2</v>
-      </c>
-      <c r="H39" s="16">
-        <v>14</v>
+      <c r="I39" s="12">
+        <v>0</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
-      <c r="L39" s="17">
-        <v>12000000</v>
-      </c>
-      <c r="N39" s="13"/>
-    </row>
-    <row r="40" spans="1:14" ht="28" x14ac:dyDescent="0.15">
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="O39" s="13"/>
+    </row>
+    <row r="40" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="24">
-        <v>34639</v>
+        <v>33527</v>
       </c>
       <c r="B40" s="31">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="17">
-        <v>5000</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E40" s="26"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="12"/>
+      <c r="G40" s="16">
+        <v>2</v>
+      </c>
       <c r="H40" s="16">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17">
-        <v>59100000</v>
-      </c>
-      <c r="N40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="24" t="s">
-        <v>84</v>
+        <v>12000000</v>
+      </c>
+      <c r="M40" s="17">
+        <f>L40*(1+(cpi!$C$73/cpi!C44-1))</f>
+        <v>23682593.856655292</v>
+      </c>
+      <c r="O40" s="13"/>
+    </row>
+    <row r="41" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A41" s="24">
+        <v>34001</v>
       </c>
       <c r="B41" s="31">
-        <v>1994</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>85</v>
+        <v>1993</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="17">
-        <v>800000</v>
-      </c>
-      <c r="F41" s="17">
-        <v>990000</v>
-      </c>
-      <c r="G41" s="16">
-        <v>4</v>
-      </c>
-      <c r="H41" s="16">
-        <v>225</v>
-      </c>
-      <c r="I41" s="12">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E41" s="35">
+        <v>2400</v>
+      </c>
+      <c r="F41" s="17"/>
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
-      <c r="L41" s="17">
-        <v>59000000</v>
-      </c>
-      <c r="N41" s="13"/>
-    </row>
-    <row r="42" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="L41" s="17"/>
+      <c r="M41" s="50"/>
+      <c r="O41" s="13"/>
+    </row>
+    <row r="42" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A42" s="24">
-        <v>35438</v>
+        <v>34639</v>
       </c>
       <c r="B42" s="31">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E42" s="17">
-        <v>10500</v>
-      </c>
-      <c r="F42" s="17">
-        <v>26000</v>
-      </c>
-      <c r="G42" s="16">
-        <v>0</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="16">
-        <v>16</v>
-      </c>
-      <c r="I42" s="12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="N42" s="13"/>
-    </row>
-    <row r="43" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="24">
-        <v>35451</v>
+      <c r="L42" s="17">
+        <v>59100000</v>
+      </c>
+      <c r="M42" s="50">
+        <f>L42*(1+(cpi!$C$73/cpi!C47-1))</f>
+        <v>111272527.47252747</v>
+      </c>
+      <c r="O42" s="13"/>
+    </row>
+    <row r="43" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A43" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="B43" s="31">
-        <v>1997</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>87</v>
+        <v>1994</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>85</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="12">
-        <v>400</v>
-      </c>
-      <c r="F43" s="12">
-        <v>990</v>
+        <v>15</v>
+      </c>
+      <c r="E43" s="17">
+        <v>800000</v>
+      </c>
+      <c r="F43" s="17">
+        <v>990000</v>
       </c>
       <c r="G43" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H43" s="16">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="I43" s="12">
         <v>0</v>
@@ -2858,29 +3094,38 @@
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
       <c r="L43" s="17">
-        <v>29000000</v>
-      </c>
-      <c r="N43" s="13"/>
-    </row>
-    <row r="44" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+        <v>59000000</v>
+      </c>
+      <c r="M43" s="50">
+        <f>L43*(1+(cpi!$C$73/cpi!D47-1))</f>
+        <v>110054032.25806452</v>
+      </c>
+      <c r="O43" s="13"/>
+    </row>
+    <row r="44" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="24">
-        <v>35766</v>
+        <v>35438</v>
       </c>
       <c r="B44" s="31">
         <v>1997</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="21"/>
-      <c r="G44" s="19">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="E44" s="17">
+        <v>10500</v>
+      </c>
+      <c r="F44" s="17">
+        <v>26000</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0</v>
       </c>
       <c r="H44" s="16">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I44" s="12">
         <v>0</v>
@@ -2888,39 +3133,49 @@
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
-      <c r="N44" s="13"/>
-    </row>
-    <row r="45" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M44" s="17"/>
+      <c r="O44" s="13"/>
+    </row>
+    <row r="45" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="24">
-        <v>35766</v>
+        <v>35451</v>
       </c>
       <c r="B45" s="31">
         <v>1997</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="17">
-        <v>500000</v>
-      </c>
-      <c r="G45" s="19">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E45" s="12">
+        <v>400</v>
+      </c>
+      <c r="F45" s="12">
+        <v>990</v>
+      </c>
+      <c r="G45" s="16">
+        <v>3</v>
       </c>
       <c r="H45" s="16">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I45" s="12">
         <v>0</v>
       </c>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="N45" s="13"/>
-    </row>
-    <row r="46" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="L45" s="17">
+        <v>29000000</v>
+      </c>
+      <c r="M45" s="50">
+        <f>L45*(1+(cpi!$C$73/cpi!C50-1))</f>
+        <v>50076147.816349387</v>
+      </c>
+      <c r="O45" s="13"/>
+    </row>
+    <row r="46" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="24">
         <v>35766</v>
       </c>
@@ -2928,22 +3183,22 @@
         <v>1997</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>41</v>
+        <v>88</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="E46" s="17">
-        <v>23000</v>
+        <v>400000</v>
       </c>
       <c r="F46" s="17">
-        <v>57000</v>
-      </c>
-      <c r="G46" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="G46" s="19">
         <v>2</v>
       </c>
       <c r="H46" s="16">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I46" s="12">
         <v>0</v>
@@ -2951,97 +3206,100 @@
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="17"/>
-      <c r="N46" s="13"/>
-    </row>
-    <row r="47" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M46" s="17"/>
+      <c r="O46" s="13"/>
+    </row>
+    <row r="47" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="24">
-        <v>36131</v>
+        <v>35766</v>
       </c>
       <c r="B47" s="31">
-        <v>1998</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>93</v>
+        <v>1997</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E47" s="17">
-        <v>780</v>
-      </c>
+        <v>500000</v>
+      </c>
+      <c r="F47" s="17"/>
       <c r="G47" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H47" s="16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I47" s="12">
         <v>0</v>
       </c>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="N47" s="13"/>
-    </row>
-    <row r="48" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="24" t="s">
-        <v>95</v>
+      <c r="L47" s="17">
+        <v>10000000</v>
+      </c>
+      <c r="M47" s="50">
+        <f>L47*(1+(cpi!$C$73/cpi!C50-1))</f>
+        <v>17267637.178051513</v>
+      </c>
+      <c r="O47" s="57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A48" s="24">
+        <v>35766</v>
       </c>
       <c r="B48" s="31">
-        <v>2001</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>15</v>
+        <v>1997</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="E48" s="17">
-        <v>753314</v>
+        <v>23000</v>
       </c>
       <c r="F48" s="17">
-        <v>1861480</v>
+        <v>57000</v>
       </c>
       <c r="G48" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" s="16">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="I48" s="12">
         <v>0</v>
       </c>
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
-      <c r="L48" s="17">
-        <v>69000000</v>
-      </c>
-      <c r="N48" s="13"/>
-    </row>
-    <row r="49" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A49" s="24" t="s">
-        <v>97</v>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="O48" s="13"/>
+    </row>
+    <row r="49" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A49" s="24">
+        <v>36131</v>
       </c>
       <c r="B49" s="31">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E49" s="17">
-        <v>38000000</v>
-      </c>
-      <c r="F49" s="17">
-        <v>94000000</v>
-      </c>
-      <c r="G49" s="16">
-        <v>0</v>
+        <v>780</v>
+      </c>
+      <c r="G49" s="19">
+        <v>5</v>
       </c>
       <c r="H49" s="16">
         <v>0</v>
@@ -3052,32 +3310,36 @@
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
-      <c r="N49" s="13"/>
-    </row>
-    <row r="50" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M49" s="17"/>
+      <c r="N49" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="O49" s="13"/>
+    </row>
+    <row r="50" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B50" s="31">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="E50" s="17">
-        <v>160000</v>
+        <v>753314</v>
       </c>
       <c r="F50" s="17">
-        <v>400000</v>
+        <v>1861480</v>
       </c>
       <c r="G50" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H50" s="16">
-        <v>500</v>
+        <v>121</v>
       </c>
       <c r="I50" s="12">
         <v>0</v>
@@ -3085,288 +3347,310 @@
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
       <c r="L50" s="17">
-        <v>350000000</v>
-      </c>
-      <c r="N50" s="13"/>
-    </row>
-    <row r="51" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+        <v>69000000</v>
+      </c>
+      <c r="M50" s="50">
+        <f>L50*(1+(cpi!$C$73/cpi!C54-1))</f>
+        <v>108421875.00000001</v>
+      </c>
+      <c r="O50" s="13"/>
+    </row>
+    <row r="51" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B51" s="31">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E51" s="17">
-        <v>1300000</v>
+        <v>38000000</v>
       </c>
       <c r="F51" s="17">
-        <v>3200000</v>
+        <v>94000000</v>
       </c>
       <c r="G51" s="16">
         <v>0</v>
       </c>
       <c r="H51" s="16">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I51" s="12">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
-      <c r="L51" s="17">
-        <v>12000000</v>
-      </c>
-      <c r="M51" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="N51" s="13"/>
-    </row>
-    <row r="52" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A52" s="24">
-        <v>37956</v>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="O51" s="13"/>
+    </row>
+    <row r="52" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A52" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="B52" s="31">
         <v>2003</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>105</v>
+      <c r="C52" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="E52" s="17">
-        <v>2110000</v>
+        <v>160000</v>
       </c>
       <c r="F52" s="17">
-        <v>5200000</v>
+        <v>400000</v>
       </c>
       <c r="G52" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H52" s="16">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I52" s="12">
         <v>0</v>
       </c>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="N52" s="13"/>
-    </row>
-    <row r="53" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="L52" s="17">
+        <v>350000000</v>
+      </c>
+      <c r="M52" s="50">
+        <f>L52*(1+(cpi!$C$73/cpi!C56-1))</f>
+        <v>519108688.68226999</v>
+      </c>
+      <c r="O52" s="13"/>
+    </row>
+    <row r="53" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B53" s="31">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E53" s="17">
-        <v>77964</v>
+        <v>1300000</v>
       </c>
       <c r="F53" s="17">
-        <v>192650</v>
+        <v>3200000</v>
       </c>
       <c r="G53" s="16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H53" s="16">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="I53" s="12">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
       <c r="L53" s="17">
-        <v>27700000</v>
-      </c>
-      <c r="N53" s="13"/>
-    </row>
-    <row r="54" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A54" s="24" t="s">
-        <v>108</v>
+        <v>12000000</v>
+      </c>
+      <c r="M53" s="50">
+        <f>L53*(1+(cpi!$C$73/cpi!C56-1))</f>
+        <v>17798012.183392115</v>
+      </c>
+      <c r="N53" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O53" s="13"/>
+    </row>
+    <row r="54" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A54" s="24">
+        <v>37956</v>
       </c>
       <c r="B54" s="31">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E54" s="17">
-        <v>30000</v>
+        <v>2110000</v>
       </c>
       <c r="F54" s="17">
-        <v>74000</v>
+        <v>5200000</v>
       </c>
       <c r="G54" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54" s="16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I54" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17"/>
-      <c r="M54" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="N54" s="18"/>
-    </row>
-    <row r="55" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M54" s="17"/>
+      <c r="O54" s="13"/>
+    </row>
+    <row r="55" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="24" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B55" s="31">
         <v>2005</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E55" s="17">
-        <v>160000</v>
+        <v>77964</v>
       </c>
       <c r="F55" s="17">
-        <v>400000</v>
+        <v>192650</v>
       </c>
       <c r="G55" s="16">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H55" s="16">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="I55" s="12">
-        <v>359</v>
-      </c>
-      <c r="J55" s="17">
-        <v>63243</v>
-      </c>
-      <c r="K55" s="17">
-        <f>557+464</f>
-        <v>1021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
       <c r="L55" s="17">
-        <v>22400000</v>
-      </c>
-      <c r="M55" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="N55" s="13"/>
-    </row>
-    <row r="56" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A56" s="24">
-        <v>38718</v>
+        <v>27700000</v>
+      </c>
+      <c r="M55" s="50">
+        <f>L55*(1+(cpi!$C$73/cpi!C58-1))</f>
+        <v>39174625.49678997</v>
+      </c>
+      <c r="O55" s="13"/>
+    </row>
+    <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A56" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="B56" s="31">
         <v>2006</v>
       </c>
-      <c r="C56" s="32" t="s">
-        <v>116</v>
+      <c r="C56" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E56" s="17">
-        <v>184000</v>
+        <v>30000</v>
       </c>
       <c r="F56" s="17">
-        <v>450000</v>
+        <v>74000</v>
       </c>
       <c r="G56" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" s="16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I56" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
       <c r="L56" s="17"/>
-      <c r="N56" s="18"/>
-    </row>
-    <row r="57" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A57" s="24">
-        <v>38754</v>
+      <c r="M56" s="17"/>
+      <c r="N56" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="O56" s="18"/>
+    </row>
+    <row r="57" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A57" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="B57" s="31">
+        <v>2005</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="17">
+        <v>160000</v>
+      </c>
+      <c r="F57" s="17">
+        <v>400000</v>
+      </c>
+      <c r="G57" s="16">
+        <v>4</v>
+      </c>
+      <c r="H57" s="16">
+        <v>57</v>
+      </c>
+      <c r="I57" s="12">
+        <v>359</v>
+      </c>
+      <c r="J57" s="17">
+        <v>63243</v>
+      </c>
+      <c r="K57" s="17">
+        <f>557+464</f>
+        <v>1021</v>
+      </c>
+      <c r="L57" s="17">
+        <v>22400000</v>
+      </c>
+      <c r="M57" s="50">
+        <f>L57*(1+(cpi!$C$73/cpi!C58-1))</f>
+        <v>31679119.535310302</v>
+      </c>
+      <c r="N57" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O57" s="13"/>
+    </row>
+    <row r="58" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A58" s="24">
+        <v>38718</v>
+      </c>
+      <c r="B58" s="31">
         <v>2006</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="17">
-        <v>9000</v>
-      </c>
-      <c r="F57" s="17">
-        <v>22000</v>
-      </c>
-      <c r="G57" s="16">
-        <v>0</v>
-      </c>
-      <c r="H57" s="16">
-        <v>0</v>
-      </c>
-      <c r="I57" s="12">
-        <v>2</v>
-      </c>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="N57" s="13"/>
-    </row>
-    <row r="58" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A58" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="31">
-        <v>2007</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>122</v>
+      <c r="C58" s="32" t="s">
+        <v>116</v>
       </c>
       <c r="D58" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="17">
-        <v>1048000</v>
+        <v>184000</v>
       </c>
       <c r="F58" s="17">
-        <v>2590000</v>
+        <v>450000</v>
       </c>
       <c r="G58" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" s="16">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I58" s="12">
         <v>0</v>
@@ -3374,231 +3658,274 @@
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
       <c r="L58" s="17"/>
-      <c r="N58" s="13"/>
-    </row>
-    <row r="59" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A59" s="24" t="s">
-        <v>123</v>
+      <c r="M58" s="17"/>
+      <c r="O58" s="18"/>
+    </row>
+    <row r="59" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A59" s="24">
+        <v>38754</v>
       </c>
       <c r="B59" s="31">
-        <v>2007</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>124</v>
+        <v>2006</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>195</v>
       </c>
       <c r="D59" s="22" t="s">
         <v>15</v>
       </c>
       <c r="E59" s="17">
-        <v>1360000</v>
+        <v>9000</v>
       </c>
       <c r="F59" s="17">
-        <v>3400000</v>
+        <v>22000</v>
       </c>
       <c r="G59" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H59" s="16">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I59" s="12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
       <c r="L59" s="17"/>
-      <c r="N59" s="18"/>
-    </row>
-    <row r="60" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="M59" s="17"/>
+      <c r="N59" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="O59" s="13"/>
+    </row>
+    <row r="60" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="24" t="s">
-        <v>230</v>
+        <v>121</v>
       </c>
       <c r="B60" s="31">
-        <v>2007</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="21"/>
+        <v>2006</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="17">
+        <v>1048000</v>
+      </c>
+      <c r="F60" s="17">
+        <v>2590000</v>
+      </c>
+      <c r="G60" s="16">
+        <v>1</v>
+      </c>
+      <c r="H60" s="16">
+        <v>51</v>
+      </c>
+      <c r="I60" s="12">
+        <v>0</v>
+      </c>
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="18"/>
-    </row>
-    <row r="61" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="M60" s="17"/>
+      <c r="O60" s="13"/>
+    </row>
+    <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A61" s="24" t="s">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="B61" s="31">
-        <v>2007</v>
-      </c>
-      <c r="C61" s="35" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C61" s="34" t="s">
         <v>124</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="E61" s="35">
+        <v>1360000</v>
+      </c>
+      <c r="F61" s="35">
+        <v>3400000</v>
+      </c>
+      <c r="G61" s="38">
+        <v>5</v>
+      </c>
+      <c r="H61" s="38">
+        <v>83</v>
+      </c>
+      <c r="I61" s="22">
+        <v>20</v>
+      </c>
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="18"/>
-    </row>
-    <row r="62" spans="1:14" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="M61" s="17"/>
+      <c r="O61" s="18"/>
+    </row>
+    <row r="62" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="24" t="s">
-        <v>232</v>
+        <v>123</v>
       </c>
       <c r="B62" s="31">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C62" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="36">
-        <v>1300000</v>
-      </c>
-      <c r="F62" s="36"/>
-      <c r="G62" s="39">
+      <c r="D62" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="35">
+        <v>92982</v>
+      </c>
+      <c r="F62" s="35"/>
+      <c r="G62" s="38">
         <v>1</v>
       </c>
-      <c r="H62" s="39">
-        <v>51</v>
-      </c>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="N62" s="41"/>
-    </row>
-    <row r="63" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="H62" s="38">
+        <v>1</v>
+      </c>
+      <c r="I62" s="22"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="O62" s="57" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="B63" s="31">
-        <v>2007</v>
-      </c>
-      <c r="C63" s="35" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C63" s="34" t="s">
         <v>124</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="E63" s="35">
+        <f>12500+800+2000</f>
+        <v>15300</v>
+      </c>
+      <c r="F63" s="35"/>
+      <c r="G63" s="38">
+        <v>1</v>
+      </c>
+      <c r="H63" s="38">
+        <v>26</v>
+      </c>
+      <c r="I63" s="22">
+        <v>28</v>
+      </c>
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="18"/>
-    </row>
-    <row r="64" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A64" s="24">
-        <v>39117</v>
+      <c r="L63" s="17">
+        <v>50000000</v>
+      </c>
+      <c r="M63" s="50">
+        <f>L63*(1+(cpi!$C$73/cpi!C59-1))</f>
+        <v>68513033.175355449</v>
+      </c>
+      <c r="O63" s="58" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="22" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A64" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="B64" s="31">
-        <v>2007</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>126</v>
+        <v>2006</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="D64" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="35">
+        <v>1300000</v>
+      </c>
+      <c r="F64" s="35"/>
+      <c r="G64" s="38">
+        <v>1</v>
+      </c>
+      <c r="H64" s="38">
+        <v>51</v>
+      </c>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+    </row>
+    <row r="65" spans="1:15" ht="126" x14ac:dyDescent="0.15">
+      <c r="A65" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="31">
+        <v>2006</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="17">
-        <v>12000</v>
-      </c>
-      <c r="F64" s="17">
-        <v>30000</v>
-      </c>
-      <c r="G64" s="16">
-        <v>0</v>
-      </c>
-      <c r="H64" s="16">
-        <v>16</v>
-      </c>
-      <c r="I64" s="12">
-        <v>0</v>
-      </c>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="N64" s="13"/>
-    </row>
-    <row r="65" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A65" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" s="31">
-        <v>2007</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E65" s="17">
-        <v>95000</v>
-      </c>
-      <c r="F65" s="17">
-        <v>230000</v>
-      </c>
-      <c r="G65" s="16">
+      <c r="E65" s="35">
+        <v>2900</v>
+      </c>
+      <c r="F65" s="35"/>
+      <c r="G65" s="38">
         <v>1</v>
       </c>
-      <c r="H65" s="16">
-        <v>0</v>
-      </c>
-      <c r="I65" s="12">
-        <v>0</v>
-      </c>
-      <c r="J65" s="17"/>
+      <c r="H65" s="38">
+        <v>38</v>
+      </c>
+      <c r="I65" s="22">
+        <v>20</v>
+      </c>
+      <c r="J65" s="17">
+        <v>100</v>
+      </c>
       <c r="K65" s="17"/>
       <c r="L65" s="17"/>
-      <c r="N65" s="13"/>
-    </row>
-    <row r="66" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M65" s="17"/>
+      <c r="O65" s="56" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="24">
-        <v>39446</v>
+        <v>39117</v>
       </c>
       <c r="B66" s="31">
         <v>2007</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>41</v>
       </c>
       <c r="E66" s="17">
-        <v>40000</v>
+        <v>12000</v>
       </c>
       <c r="F66" s="17">
-        <v>99000</v>
+        <v>30000</v>
       </c>
       <c r="G66" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H66" s="16">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I66" s="12">
         <v>0</v>
@@ -3606,578 +3933,530 @@
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
       <c r="L66" s="17"/>
-      <c r="M66" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="N66" s="13"/>
-    </row>
-    <row r="67" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="M66" s="17"/>
+      <c r="O66" s="13"/>
+    </row>
+    <row r="67" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B67" s="31">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E67" s="17">
-        <v>450000</v>
+        <v>95000</v>
       </c>
       <c r="F67" s="17">
-        <v>1100000</v>
+        <v>230000</v>
       </c>
       <c r="G67" s="16">
-        <v>173</v>
-      </c>
-      <c r="H67" s="20">
-        <v>2029</v>
-      </c>
-      <c r="I67" s="17">
-        <v>2000</v>
+        <v>1</v>
+      </c>
+      <c r="H67" s="16">
+        <v>0</v>
+      </c>
+      <c r="I67" s="12">
+        <v>0</v>
       </c>
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
-      <c r="L67" s="17">
-        <v>1070000000</v>
-      </c>
-      <c r="N67" s="18"/>
-    </row>
-    <row r="68" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="O67" s="13"/>
+    </row>
+    <row r="68" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="24">
-        <v>40575</v>
+        <v>39446</v>
       </c>
       <c r="B68" s="31">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c r="D68" s="22" t="s">
         <v>41</v>
       </c>
       <c r="E68" s="17">
-        <v>1540</v>
-      </c>
-      <c r="F68" s="17"/>
-      <c r="H68" s="20">
-        <f>71+39</f>
-        <v>110</v>
-      </c>
-      <c r="I68" s="17"/>
+        <v>40000</v>
+      </c>
+      <c r="F68" s="17">
+        <v>99000</v>
+      </c>
+      <c r="G68" s="16">
+        <v>3</v>
+      </c>
+      <c r="H68" s="16">
+        <v>0</v>
+      </c>
+      <c r="I68" s="12">
+        <v>0</v>
+      </c>
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
-      <c r="L68" s="17">
-        <v>35000000</v>
-      </c>
-      <c r="N68" s="18"/>
-    </row>
-    <row r="69" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="O68" s="13"/>
+    </row>
+    <row r="69" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="24">
-        <v>40870</v>
+        <v>39508</v>
       </c>
       <c r="B69" s="31">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E69" s="17">
-        <f>55150+3400</f>
-        <v>58550</v>
+        <v>18500</v>
       </c>
       <c r="F69" s="17"/>
-      <c r="H69" s="20">
-        <f>200+(32+5+9)</f>
-        <v>246</v>
-      </c>
-      <c r="I69" s="17">
-        <v>1</v>
-      </c>
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
-      <c r="L69" s="17">
-        <v>53000000</v>
-      </c>
-      <c r="N69" s="18"/>
-    </row>
-    <row r="70" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A70" s="24">
-        <v>41278</v>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="O69" s="13"/>
+    </row>
+    <row r="70" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A70" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="B70" s="31">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E70" s="17">
-        <v>20000</v>
+        <v>450000</v>
       </c>
       <c r="F70" s="17">
-        <v>49000</v>
+        <v>1100000</v>
       </c>
       <c r="G70" s="16">
-        <v>1</v>
-      </c>
-      <c r="H70" s="16">
-        <v>0</v>
-      </c>
-      <c r="I70" s="12">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="H70" s="20">
+        <v>2029</v>
+      </c>
+      <c r="I70" s="17">
+        <v>2000</v>
       </c>
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
       <c r="L70" s="17">
-        <v>87100000</v>
-      </c>
-      <c r="N70" s="13"/>
-    </row>
-    <row r="71" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+        <v>1070000000</v>
+      </c>
+      <c r="M70" s="50">
+        <f>L70*(1+(cpi!$C$73/cpi!C62-1))</f>
+        <v>1335983805.6680162</v>
+      </c>
+      <c r="O70" s="18"/>
+    </row>
+    <row r="71" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A71" s="24">
-        <v>41292</v>
+        <v>40179</v>
       </c>
       <c r="B71" s="31">
-        <v>2013</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>134</v>
+        <v>2010</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>250</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E71" s="17">
-        <v>54000</v>
-      </c>
-      <c r="F71" s="17">
-        <v>130000</v>
-      </c>
-      <c r="G71" s="16">
-        <v>0</v>
-      </c>
-      <c r="H71" s="16">
-        <v>53</v>
-      </c>
-      <c r="I71" s="12">
-        <v>118</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="F71" s="17"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="17"/>
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
-      <c r="L71" s="17">
-        <v>35000000</v>
-      </c>
-      <c r="M71" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="N71" s="13"/>
-    </row>
-    <row r="72" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A72" s="24" t="s">
-        <v>137</v>
+      <c r="L71" s="17"/>
+      <c r="M71" s="50"/>
+      <c r="O71" s="18"/>
+    </row>
+    <row r="72" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A72" s="24">
+        <v>40179</v>
       </c>
       <c r="B72" s="31">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>138</v>
+        <v>249</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E72" s="17">
-        <v>120000</v>
-      </c>
-      <c r="F72" s="17">
-        <v>250000</v>
-      </c>
-      <c r="G72" s="16">
-        <v>1</v>
-      </c>
-      <c r="H72" s="16">
-        <v>208</v>
-      </c>
-      <c r="I72" s="12">
-        <v>40</v>
-      </c>
+        <v>6500</v>
+      </c>
+      <c r="F72" s="17"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="17"/>
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
-      <c r="L72" s="17">
-        <v>183400000</v>
-      </c>
-      <c r="N72" s="18"/>
-    </row>
-    <row r="73" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A73" s="24" t="s">
-        <v>139</v>
+      <c r="L72" s="17"/>
+      <c r="M72" s="50"/>
+      <c r="O72" s="18"/>
+    </row>
+    <row r="73" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A73" s="24">
+        <v>40179</v>
       </c>
       <c r="B73" s="31">
-        <v>2012</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>140</v>
+        <v>2010</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>251</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E73" s="17">
-        <v>800000</v>
-      </c>
-      <c r="F73" s="17">
-        <v>2000000</v>
-      </c>
-      <c r="G73" s="16">
-        <v>0</v>
-      </c>
-      <c r="H73" s="16">
-        <v>0</v>
-      </c>
-      <c r="I73" s="12">
-        <v>0</v>
-      </c>
+        <v>2200</v>
+      </c>
+      <c r="F73" s="17"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="17"/>
       <c r="J73" s="17"/>
       <c r="K73" s="17"/>
       <c r="L73" s="17"/>
-      <c r="M73" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="N73" s="13"/>
-    </row>
-    <row r="74" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M73" s="50"/>
+      <c r="O73" s="18"/>
+    </row>
+    <row r="74" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="24">
-        <v>41651</v>
+        <v>40575</v>
       </c>
       <c r="B74" s="31">
-        <v>2014</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>224</v>
+        <v>2011</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>220</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="E74" s="17">
-        <v>650</v>
+        <v>1540</v>
       </c>
       <c r="F74" s="17"/>
-      <c r="G74" s="16">
-        <v>1</v>
-      </c>
+      <c r="H74" s="20">
+        <f>71+39</f>
+        <v>110</v>
+      </c>
+      <c r="I74" s="17"/>
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
       <c r="L74" s="17">
-        <v>15000000</v>
-      </c>
-      <c r="N74" s="13"/>
-    </row>
-    <row r="75" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A75" s="24" t="s">
-        <v>143</v>
+        <v>35000000</v>
+      </c>
+      <c r="M74" s="50">
+        <f>L74*(1+(cpi!$C$73/cpi!C64-1))</f>
+        <v>41419800.460475832</v>
+      </c>
+      <c r="O74" s="18"/>
+    </row>
+    <row r="75" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A75" s="24">
+        <v>40870</v>
       </c>
       <c r="B75" s="31">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E75" s="17">
-        <v>20000</v>
-      </c>
-      <c r="F75" s="17">
-        <v>49000</v>
-      </c>
-      <c r="G75" s="16">
-        <v>0</v>
-      </c>
-      <c r="H75" s="16">
-        <v>27</v>
-      </c>
-      <c r="I75" s="12">
-        <v>140</v>
+        <f>55150+3400</f>
+        <v>58550</v>
+      </c>
+      <c r="F75" s="17"/>
+      <c r="H75" s="20">
+        <f>200+(32+5+9)</f>
+        <v>246</v>
+      </c>
+      <c r="I75" s="17">
+        <v>1</v>
       </c>
       <c r="J75" s="17"/>
       <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="N75" s="13"/>
-    </row>
-    <row r="76" spans="1:14" ht="28" x14ac:dyDescent="0.15">
-      <c r="A76" s="24" t="s">
-        <v>145</v>
+      <c r="L75" s="17">
+        <v>53000000</v>
+      </c>
+      <c r="M75" s="50">
+        <f>L75*(1+(cpi!$C$73/cpi!C64-1))</f>
+        <v>62721412.125863403</v>
+      </c>
+      <c r="O75" s="18"/>
+    </row>
+    <row r="76" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A76" s="24">
+        <v>40899</v>
       </c>
       <c r="B76" s="31">
-        <v>2015</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>196</v>
+        <v>2011</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>252</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E76" s="17">
-        <v>98923</v>
-      </c>
-      <c r="F76" s="17">
-        <v>244440</v>
-      </c>
-      <c r="G76" s="16">
-        <v>0</v>
-      </c>
-      <c r="H76" s="16">
-        <v>2</v>
-      </c>
-      <c r="I76" s="12">
-        <v>5</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="F76" s="17"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="17"/>
       <c r="J76" s="17"/>
       <c r="K76" s="17"/>
       <c r="L76" s="17"/>
-      <c r="M76" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="N76" s="13"/>
-    </row>
-    <row r="77" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="M76" s="50"/>
+      <c r="O76" s="18"/>
+    </row>
+    <row r="77" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A77" s="24">
-        <v>42005</v>
+        <v>40899</v>
       </c>
       <c r="B77" s="31">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E77" s="17">
-        <v>52373</v>
-      </c>
-      <c r="F77" s="17">
-        <v>129420</v>
-      </c>
-      <c r="G77" s="16">
-        <v>0</v>
-      </c>
-      <c r="H77" s="16">
-        <v>1</v>
-      </c>
-      <c r="I77" s="12">
-        <v>1</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="F77" s="17"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="17"/>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
       <c r="L77" s="17"/>
-      <c r="M77" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="N77" s="13"/>
-    </row>
-    <row r="78" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A78" s="24" t="s">
-        <v>151</v>
+      <c r="M77" s="50"/>
+      <c r="O77" s="18"/>
+    </row>
+    <row r="78" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A78" s="24">
+        <v>40899</v>
       </c>
       <c r="B78" s="31">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>152</v>
+        <v>254</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="12">
-        <v>800</v>
-      </c>
-      <c r="F78" s="17">
-        <v>2000</v>
-      </c>
-      <c r="G78" s="16">
-        <v>0</v>
-      </c>
-      <c r="H78" s="16">
-        <v>0</v>
-      </c>
-      <c r="I78" s="12">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E78" s="17">
+        <v>5250</v>
+      </c>
+      <c r="F78" s="17"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="17"/>
       <c r="J78" s="17"/>
       <c r="K78" s="17"/>
       <c r="L78" s="17"/>
-    </row>
-    <row r="79" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A79" s="24" t="s">
-        <v>153</v>
+      <c r="M78" s="50"/>
+      <c r="O78" s="18"/>
+    </row>
+    <row r="79" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A79" s="24">
+        <v>40899</v>
       </c>
       <c r="B79" s="31">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E79" s="17">
-        <v>200000</v>
-      </c>
-      <c r="F79" s="17">
-        <v>490000</v>
-      </c>
-      <c r="G79" s="16">
-        <v>4</v>
-      </c>
-      <c r="H79" s="16">
-        <v>10</v>
-      </c>
-      <c r="I79" s="12">
-        <v>0</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="F79" s="17"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="17"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
       <c r="L79" s="17"/>
-      <c r="M79" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="N79" s="18"/>
-    </row>
-    <row r="80" spans="1:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="A80" s="24" t="s">
-        <v>158</v>
+      <c r="M79" s="50"/>
+      <c r="O79" s="18"/>
+    </row>
+    <row r="80" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A80" s="24">
+        <v>41278</v>
       </c>
       <c r="B80" s="31">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E80" s="17">
-        <v>10016</v>
+        <v>20000</v>
       </c>
       <c r="F80" s="17">
-        <v>24750</v>
+        <v>49000</v>
       </c>
       <c r="G80" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="16">
         <v>0</v>
       </c>
       <c r="I80" s="12">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="J80" s="17"/>
       <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="N80" s="13"/>
-    </row>
-    <row r="81" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A81" s="24" t="s">
-        <v>161</v>
+      <c r="L80" s="17">
+        <v>87100000</v>
+      </c>
+      <c r="M80" s="50">
+        <f>L80*(1+(cpi!$C$73/cpi!C66-1))</f>
+        <v>98514572.12713936</v>
+      </c>
+      <c r="O80" s="13"/>
+    </row>
+    <row r="81" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A81" s="24">
+        <v>41292</v>
       </c>
       <c r="B81" s="31">
-        <v>2015</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>162</v>
+        <v>2013</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E81" s="17">
-        <v>85000</v>
+        <v>54000</v>
       </c>
       <c r="F81" s="17">
-        <v>210000</v>
+        <v>130000</v>
       </c>
       <c r="G81" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81" s="16">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="I81" s="12">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-      <c r="N81" s="18"/>
-    </row>
-    <row r="82" spans="1:14" ht="28" x14ac:dyDescent="0.15">
-      <c r="A82" s="24">
-        <v>42370</v>
+      <c r="L81" s="17">
+        <v>35000000</v>
+      </c>
+      <c r="M81" s="50">
+        <f>L81*(1+(cpi!$C$73/cpi!C66-1))</f>
+        <v>39586797.06601467</v>
+      </c>
+      <c r="N81" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="O81" s="13"/>
+    </row>
+    <row r="82" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A82" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="B82" s="31">
-        <v>2016</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>197</v>
+        <v>2013</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>138</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E82" s="17">
-        <v>69165</v>
+        <v>120000</v>
       </c>
       <c r="F82" s="17">
-        <v>170910</v>
+        <v>250000</v>
       </c>
       <c r="G82" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" s="16">
-        <v>181</v>
-      </c>
-      <c r="I82" s="13"/>
+        <v>208</v>
+      </c>
+      <c r="I82" s="12">
+        <v>40</v>
+      </c>
       <c r="J82" s="17"/>
       <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="N82" s="13"/>
-    </row>
-    <row r="83" spans="1:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="L82" s="17">
+        <v>183400000</v>
+      </c>
+      <c r="M82" s="50">
+        <f>L82*(1+(cpi!$C$73/cpi!C66-1))</f>
+        <v>207434816.62591684</v>
+      </c>
+      <c r="O82" s="18"/>
+    </row>
+    <row r="83" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="24" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="B83" s="31">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E83" s="17">
-        <v>52000</v>
+        <v>800000</v>
       </c>
       <c r="F83" s="17">
-        <v>130000</v>
+        <v>2000000</v>
       </c>
       <c r="G83" s="16">
         <v>0</v>
       </c>
       <c r="H83" s="16">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I83" s="12">
         <v>0</v>
@@ -4185,104 +4464,1772 @@
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
       <c r="L83" s="17"/>
-      <c r="N83" s="13"/>
-    </row>
-    <row r="84" spans="1:14" ht="15" x14ac:dyDescent="0.15">
-      <c r="A84" s="24" t="s">
-        <v>169</v>
+      <c r="M83" s="17"/>
+      <c r="N83" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="O83" s="13"/>
+    </row>
+    <row r="84" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A84" s="24">
+        <v>41651</v>
       </c>
       <c r="B84" s="31">
-        <v>2019</v>
-      </c>
-      <c r="C84" s="32" t="s">
-        <v>170</v>
+        <v>2014</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>221</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c r="E84" s="17">
-        <v>23419</v>
-      </c>
-      <c r="F84" s="17">
-        <v>57870</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="F84" s="17"/>
       <c r="G84" s="16">
-        <v>0</v>
-      </c>
-      <c r="H84" s="16">
-        <v>19</v>
-      </c>
-      <c r="I84" s="12">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="N84" s="18"/>
-    </row>
-    <row r="85" spans="1:14" ht="28" x14ac:dyDescent="0.15">
+      <c r="L84" s="17">
+        <v>15000000</v>
+      </c>
+      <c r="M84" s="50">
+        <f>L84*(1+(cpi!$C$73/cpi!C67-1))</f>
+        <v>16517495.834325161</v>
+      </c>
+      <c r="O84" s="13"/>
+    </row>
+    <row r="85" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="24" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B85" s="31">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="E85" s="17">
-        <v>18626000</v>
+        <v>20000</v>
       </c>
       <c r="F85" s="17">
-        <v>46030000</v>
-      </c>
-      <c r="G85" s="19">
-        <v>34</v>
-      </c>
-      <c r="H85" s="19">
-        <v>2600</v>
+        <v>49000</v>
+      </c>
+      <c r="G85" s="16">
+        <v>0</v>
+      </c>
+      <c r="H85" s="16">
+        <v>27</v>
       </c>
       <c r="I85" s="12">
-        <v>6000</v>
+        <v>140</v>
       </c>
       <c r="J85" s="17"/>
       <c r="K85" s="17"/>
-      <c r="L85" s="17">
-        <v>2300000000</v>
-      </c>
-      <c r="M85" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" s="24"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="O85" s="13"/>
+    </row>
+    <row r="86" spans="1:15" ht="28" x14ac:dyDescent="0.15">
+      <c r="A86" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="31">
+        <v>2015</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E86" s="17">
+        <v>98923</v>
+      </c>
+      <c r="F86" s="17">
+        <v>244440</v>
+      </c>
+      <c r="G86" s="16">
+        <v>0</v>
+      </c>
+      <c r="H86" s="16">
+        <v>2</v>
+      </c>
+      <c r="I86" s="12">
+        <v>5</v>
+      </c>
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
-    </row>
-    <row r="87" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" s="24"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="O86" s="13"/>
+    </row>
+    <row r="87" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A87" s="24">
+        <v>42005</v>
+      </c>
+      <c r="B87" s="31">
+        <v>2005</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E87" s="17">
+        <v>52373</v>
+      </c>
+      <c r="F87" s="17">
+        <v>129420</v>
+      </c>
+      <c r="G87" s="16">
+        <v>0</v>
+      </c>
+      <c r="H87" s="16">
+        <v>1</v>
+      </c>
+      <c r="I87" s="12">
+        <v>1</v>
+      </c>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
       <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="O87" s="13"/>
+    </row>
+    <row r="88" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A88" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="31">
+        <v>2015</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="12">
+        <v>800</v>
+      </c>
+      <c r="F88" s="17">
+        <v>2000</v>
+      </c>
+      <c r="G88" s="16">
+        <v>0</v>
+      </c>
+      <c r="H88" s="16">
+        <v>0</v>
+      </c>
+      <c r="I88" s="12">
+        <v>0</v>
+      </c>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+    </row>
+    <row r="89" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A89" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" s="31">
+        <v>2015</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" s="17">
+        <v>200000</v>
+      </c>
+      <c r="F89" s="17">
+        <v>490000</v>
+      </c>
+      <c r="G89" s="16">
+        <v>4</v>
+      </c>
+      <c r="H89" s="16">
+        <v>10</v>
+      </c>
+      <c r="I89" s="12">
+        <v>0</v>
+      </c>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="O89" s="18"/>
+    </row>
+    <row r="90" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A90" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" s="31">
+        <v>2015</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90" s="17">
+        <v>10016</v>
+      </c>
+      <c r="F90" s="17">
+        <v>24750</v>
+      </c>
+      <c r="G90" s="16">
+        <v>0</v>
+      </c>
+      <c r="H90" s="16">
+        <v>0</v>
+      </c>
+      <c r="I90" s="12">
+        <v>0</v>
+      </c>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="O90" s="13"/>
+    </row>
+    <row r="91" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A91" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" s="31">
+        <v>2015</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" s="17">
+        <v>85000</v>
+      </c>
+      <c r="F91" s="17">
+        <v>210000</v>
+      </c>
+      <c r="G91" s="16">
+        <v>2</v>
+      </c>
+      <c r="H91" s="16">
+        <v>91</v>
+      </c>
+      <c r="I91" s="12">
+        <v>0</v>
+      </c>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="O91" s="18"/>
+    </row>
+    <row r="92" spans="1:15" ht="28" x14ac:dyDescent="0.15">
+      <c r="A92" s="24">
+        <v>42370</v>
+      </c>
+      <c r="B92" s="31">
+        <v>2016</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E92" s="17">
+        <v>69165</v>
+      </c>
+      <c r="F92" s="17">
+        <v>170910</v>
+      </c>
+      <c r="G92" s="16">
+        <v>2</v>
+      </c>
+      <c r="H92" s="16">
+        <v>181</v>
+      </c>
+      <c r="I92" s="13"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="O92" s="13"/>
+    </row>
+    <row r="93" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A93" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B93" s="31">
+        <v>2017</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="17">
+        <v>52000</v>
+      </c>
+      <c r="F93" s="17">
+        <v>130000</v>
+      </c>
+      <c r="G93" s="16">
+        <v>0</v>
+      </c>
+      <c r="H93" s="16">
+        <v>35</v>
+      </c>
+      <c r="I93" s="12">
+        <v>0</v>
+      </c>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="O93" s="13"/>
+    </row>
+    <row r="94" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+      <c r="A94" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94" s="31">
+        <v>2019</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="17">
+        <v>23419</v>
+      </c>
+      <c r="F94" s="17">
+        <v>57870</v>
+      </c>
+      <c r="G94" s="16">
+        <v>0</v>
+      </c>
+      <c r="H94" s="16">
+        <v>19</v>
+      </c>
+      <c r="I94" s="12">
+        <v>57</v>
+      </c>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="O94" s="18"/>
+    </row>
+    <row r="95" spans="1:15" ht="28" x14ac:dyDescent="0.15">
+      <c r="A95" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B95" s="31">
+        <v>2020</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E95" s="17">
+        <v>6800000</v>
+      </c>
+      <c r="F95" s="17">
+        <v>16800000</v>
+      </c>
+      <c r="G95" s="16">
+        <v>0</v>
+      </c>
+      <c r="H95" s="16">
+        <v>5</v>
+      </c>
+      <c r="I95" s="17">
+        <f>6000*(E95/SUM($E$95:$E$102))</f>
+        <v>2134.7326017200085</v>
+      </c>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17">
+        <f>2300000000*(E95/SUM($E$95:$E$102))</f>
+        <v>818314163.99266982</v>
+      </c>
+      <c r="M95" s="17">
+        <f>L95</f>
+        <v>818314163.99266982</v>
+      </c>
+      <c r="N95" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="28" x14ac:dyDescent="0.15">
+      <c r="A96" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B96" s="31">
+        <v>2020</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="17">
+        <v>5500000</v>
+      </c>
+      <c r="F96" s="17">
+        <v>13600000</v>
+      </c>
+      <c r="G96" s="16">
+        <v>26</v>
+      </c>
+      <c r="H96" s="16">
+        <v>2448</v>
+      </c>
+      <c r="I96" s="17">
+        <f>6000*(E96/SUM($E$95:$E$102))</f>
+        <v>1726.6219572735365</v>
+      </c>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17">
+        <f t="shared" ref="L96:L102" si="1">2300000000*(E96/SUM($E$95:$E$102))</f>
+        <v>661871750.28818893</v>
+      </c>
+      <c r="M96" s="17">
+        <f t="shared" ref="M96:M102" si="2">L96</f>
+        <v>661871750.28818893</v>
+      </c>
+      <c r="N96" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="28" x14ac:dyDescent="0.15">
+      <c r="A97" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B97" s="31">
+        <v>2020</v>
+      </c>
+      <c r="C97" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" s="17">
+        <v>2500000</v>
+      </c>
+      <c r="F97" s="17">
+        <v>6180000</v>
+      </c>
+      <c r="G97" s="16">
+        <v>0</v>
+      </c>
+      <c r="H97" s="16">
+        <v>48</v>
+      </c>
+      <c r="I97" s="17">
+        <f>6000*(E97/SUM($E$95:$E$102))</f>
+        <v>784.82816239706187</v>
+      </c>
+      <c r="L97" s="17">
+        <f t="shared" si="1"/>
+        <v>300850795.58554041</v>
+      </c>
+      <c r="M97" s="17">
+        <f t="shared" si="2"/>
+        <v>300850795.58554041</v>
+      </c>
+      <c r="N97" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="28" x14ac:dyDescent="0.15">
+      <c r="A98" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B98" s="31">
+        <v>2020</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E98" s="17">
+        <v>2200000</v>
+      </c>
+      <c r="F98" s="17">
+        <v>5400000</v>
+      </c>
+      <c r="G98" s="16">
+        <v>0</v>
+      </c>
+      <c r="H98" s="16">
+        <v>1</v>
+      </c>
+      <c r="I98" s="17">
+        <f>6000*(E98/SUM($E$95:$E$102))</f>
+        <v>690.64878290941442</v>
+      </c>
+      <c r="L98" s="17">
+        <f t="shared" si="1"/>
+        <v>264748700.11527556</v>
+      </c>
+      <c r="M98" s="17">
+        <f t="shared" si="2"/>
+        <v>264748700.11527556</v>
+      </c>
+      <c r="N98" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="28" x14ac:dyDescent="0.15">
+      <c r="A99" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B99" s="31">
+        <v>2020</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="17">
+        <v>1500000</v>
+      </c>
+      <c r="F99" s="17">
+        <v>3710000</v>
+      </c>
+      <c r="G99" s="16">
+        <v>5</v>
+      </c>
+      <c r="H99" s="16">
+        <v>396</v>
+      </c>
+      <c r="I99" s="17">
+        <f>6000*(E99/SUM($E$95:$E$102))</f>
+        <v>470.8968974382372</v>
+      </c>
+      <c r="L99" s="17">
+        <f t="shared" si="1"/>
+        <v>180510477.35132426</v>
+      </c>
+      <c r="M99" s="17">
+        <f t="shared" si="2"/>
+        <v>180510477.35132426</v>
+      </c>
+      <c r="N99" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="28" x14ac:dyDescent="0.15">
+      <c r="A100" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B100" s="31">
+        <v>2020</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100" s="17">
+        <v>490000</v>
+      </c>
+      <c r="F100" s="17">
+        <v>1210000</v>
+      </c>
+      <c r="G100" s="16">
+        <v>3</v>
+      </c>
+      <c r="H100" s="16">
+        <v>151</v>
+      </c>
+      <c r="I100" s="17">
+        <f>6000*(E100/SUM($E$95:$E$102))</f>
+        <v>153.82631982982414</v>
+      </c>
+      <c r="L100" s="17">
+        <f t="shared" si="1"/>
+        <v>58966755.93476592</v>
+      </c>
+      <c r="M100" s="17">
+        <f t="shared" si="2"/>
+        <v>58966755.93476592</v>
+      </c>
+      <c r="N100" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="28" x14ac:dyDescent="0.15">
+      <c r="A101" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="B101" s="31">
+        <v>2020</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E101" s="17">
+        <v>86464</v>
+      </c>
+      <c r="F101" s="17">
+        <v>213660</v>
+      </c>
+      <c r="G101" s="16">
+        <v>0</v>
+      </c>
+      <c r="H101" s="16">
+        <v>0</v>
+      </c>
+      <c r="I101" s="17">
+        <f>6000*(E101/SUM($E$95:$E$102))</f>
+        <v>27.143752893399824</v>
+      </c>
+      <c r="L101" s="17">
+        <f t="shared" si="1"/>
+        <v>10405105.275803266</v>
+      </c>
+      <c r="M101" s="17">
+        <f t="shared" si="2"/>
+        <v>10405105.275803266</v>
+      </c>
+      <c r="N101" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="28" x14ac:dyDescent="0.15">
+      <c r="A102" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B102" s="31">
+        <v>2020</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="12">
+        <v>36000</v>
+      </c>
+      <c r="F102" s="12">
+        <v>89000</v>
+      </c>
+      <c r="G102" s="16">
+        <v>0</v>
+      </c>
+      <c r="H102" s="16">
+        <v>2</v>
+      </c>
+      <c r="I102" s="17">
+        <f>6000*(E102/SUM($E$95:$E$102))</f>
+        <v>11.301525538517692</v>
+      </c>
+      <c r="L102" s="17">
+        <f t="shared" si="1"/>
+        <v>4332251.4564317819</v>
+      </c>
+      <c r="M102" s="17">
+        <f t="shared" si="2"/>
+        <v>4332251.4564317819</v>
+      </c>
+      <c r="N102" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N103" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N102" xr:uid="{F1A2F8D5-4366-5D41-BA5C-AE5BBB838BDF}"/>
   <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="O63" r:id="rId1" xr:uid="{85590B64-1F64-9647-A7EF-FA7AAAB0501D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12DDF0C-EB94-9647-8BFD-A5E66EC99180}">
+  <dimension ref="A1:E73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="52">
+        <v>1949</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="52">
+        <v>1950</v>
+      </c>
+      <c r="B3">
+        <v>4.3</v>
+      </c>
+      <c r="C3">
+        <v>4.1749999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="52">
+        <v>1951</v>
+      </c>
+      <c r="B4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C4">
+        <v>4.7249999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="52">
+        <v>1952</v>
+      </c>
+      <c r="B5">
+        <v>6.1</v>
+      </c>
+      <c r="C5">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="52">
+        <v>1953</v>
+      </c>
+      <c r="B6">
+        <v>6.4</v>
+      </c>
+      <c r="C6">
+        <v>6.3000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="52">
+        <v>1954</v>
+      </c>
+      <c r="B7">
+        <v>6.5</v>
+      </c>
+      <c r="C7">
+        <v>6.4749999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="52">
+        <v>1955</v>
+      </c>
+      <c r="B8">
+        <v>6.6</v>
+      </c>
+      <c r="C8">
+        <v>6.5250000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="52">
+        <v>1956</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="52">
+        <v>1957</v>
+      </c>
+      <c r="B10">
+        <v>7.2</v>
+      </c>
+      <c r="C10">
+        <v>7.1249999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="52">
+        <v>1958</v>
+      </c>
+      <c r="B11">
+        <v>7.2</v>
+      </c>
+      <c r="C11">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="52">
+        <v>1959</v>
+      </c>
+      <c r="B12">
+        <v>7.3</v>
+      </c>
+      <c r="C12">
+        <v>7.2750000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="52">
+        <v>1960</v>
+      </c>
+      <c r="B13">
+        <v>7.6</v>
+      </c>
+      <c r="C13">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="52">
+        <v>1961</v>
+      </c>
+      <c r="B14">
+        <v>7.9</v>
+      </c>
+      <c r="C14">
+        <v>7.8000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="52">
+        <v>1962</v>
+      </c>
+      <c r="B15">
+        <v>7.8</v>
+      </c>
+      <c r="C15" s="49">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="52">
+        <v>1963</v>
+      </c>
+      <c r="B16">
+        <v>7.8</v>
+      </c>
+      <c r="C16">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="52">
+        <v>1964</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="52">
+        <v>1965</v>
+      </c>
+      <c r="B18">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C18">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="52">
+        <v>1966</v>
+      </c>
+      <c r="B19">
+        <v>8.6</v>
+      </c>
+      <c r="C19">
+        <v>8.5250000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="52">
+        <v>1967</v>
+      </c>
+      <c r="B20">
+        <v>8.9</v>
+      </c>
+      <c r="C20">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="52">
+        <v>1968</v>
+      </c>
+      <c r="B21">
+        <v>9.1</v>
+      </c>
+      <c r="C21">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="52">
+        <v>1969</v>
+      </c>
+      <c r="B22">
+        <v>9.4</v>
+      </c>
+      <c r="C22">
+        <v>9.2999999999999989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="52">
+        <v>1970</v>
+      </c>
+      <c r="B23">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C23">
+        <v>9.5749999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="52">
+        <v>1971</v>
+      </c>
+      <c r="B24">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C24">
+        <v>10.024999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="52">
+        <v>1972</v>
+      </c>
+      <c r="B25">
+        <v>10.9</v>
+      </c>
+      <c r="C25">
+        <v>10.725</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="52">
+        <v>1973</v>
+      </c>
+      <c r="B26">
+        <v>11.8</v>
+      </c>
+      <c r="C26">
+        <v>11.375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="52">
+        <v>1974</v>
+      </c>
+      <c r="B27">
+        <v>13.5</v>
+      </c>
+      <c r="C27">
+        <v>12.824999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="52">
+        <v>1975</v>
+      </c>
+      <c r="B28">
+        <v>15.8</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="52">
+        <v>1976</v>
+      </c>
+      <c r="B29">
+        <v>17.7</v>
+      </c>
+      <c r="C29">
+        <v>16.925000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="52">
+        <v>1977</v>
+      </c>
+      <c r="B30">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C30">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="52">
+        <v>1978</v>
+      </c>
+      <c r="B31">
+        <v>21.7</v>
+      </c>
+      <c r="C31">
+        <v>21.125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="52">
+        <v>1979</v>
+      </c>
+      <c r="B32">
+        <v>23.6</v>
+      </c>
+      <c r="C32">
+        <v>22.825000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="52">
+        <v>1980</v>
+      </c>
+      <c r="B33">
+        <v>26.2</v>
+      </c>
+      <c r="C33">
+        <v>25.175000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="52">
+        <v>1981</v>
+      </c>
+      <c r="B34">
+        <v>28.4</v>
+      </c>
+      <c r="C34">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="52">
+        <v>1982</v>
+      </c>
+      <c r="B35">
+        <v>31.5</v>
+      </c>
+      <c r="C35">
+        <v>30.375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="52">
+        <v>1983</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>33.875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="52">
+        <v>1984</v>
+      </c>
+      <c r="B37">
+        <v>36.4</v>
+      </c>
+      <c r="C37">
+        <v>36.199999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="52">
+        <v>1985</v>
+      </c>
+      <c r="B38">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="C38">
+        <v>37.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="52">
+        <v>1986</v>
+      </c>
+      <c r="B39">
+        <v>42.1</v>
+      </c>
+      <c r="C39">
+        <v>40.924999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="52">
+        <v>1987</v>
+      </c>
+      <c r="B40">
+        <v>46</v>
+      </c>
+      <c r="C40">
+        <v>44.724999999999994</v>
+      </c>
+      <c r="D40">
+        <v>46.1</v>
+      </c>
+      <c r="E40">
+        <v>45.266666666666659</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="52">
+        <v>1988</v>
+      </c>
+      <c r="B41">
+        <v>49.3</v>
+      </c>
+      <c r="C41">
+        <v>48.025000000000006</v>
+      </c>
+      <c r="D41">
+        <v>49.3</v>
+      </c>
+      <c r="E41">
+        <v>48.025000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="52">
+        <v>1989</v>
+      </c>
+      <c r="B42">
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>51.525000000000006</v>
+      </c>
+      <c r="D42">
+        <v>53.1</v>
+      </c>
+      <c r="E42">
+        <v>51.574999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="52">
+        <v>1990</v>
+      </c>
+      <c r="B43">
+        <v>57.1</v>
+      </c>
+      <c r="C43">
+        <v>55.675000000000004</v>
+      </c>
+      <c r="D43">
+        <v>57.1</v>
+      </c>
+      <c r="E43">
+        <v>55.674999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="52">
+        <v>1991</v>
+      </c>
+      <c r="B44">
+        <v>59</v>
+      </c>
+      <c r="C44">
+        <v>58.6</v>
+      </c>
+      <c r="D44">
+        <v>59.1</v>
+      </c>
+      <c r="E44">
+        <v>58.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="52">
+        <v>1992</v>
+      </c>
+      <c r="B45">
+        <v>59.7</v>
+      </c>
+      <c r="C45">
+        <v>59.7</v>
+      </c>
+      <c r="D45">
+        <v>59.8</v>
+      </c>
+      <c r="E45">
+        <v>59.775000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="52">
+        <v>1993</v>
+      </c>
+      <c r="B46">
+        <v>60.8</v>
+      </c>
+      <c r="C46">
+        <v>60.325000000000003</v>
+      </c>
+      <c r="D46">
+        <v>60.9</v>
+      </c>
+      <c r="E46">
+        <v>60.375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="52">
+        <v>1994</v>
+      </c>
+      <c r="B47">
+        <v>61.9</v>
+      </c>
+      <c r="C47">
+        <v>61.425000000000004</v>
+      </c>
+      <c r="D47">
+        <v>62</v>
+      </c>
+      <c r="E47">
+        <v>61.475000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="52">
+        <v>1995</v>
+      </c>
+      <c r="B48">
+        <v>64.7</v>
+      </c>
+      <c r="C48">
+        <v>63.399999999999991</v>
+      </c>
+      <c r="D48">
+        <v>64.7</v>
+      </c>
+      <c r="E48">
+        <v>63.45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="52">
+        <v>1996</v>
+      </c>
+      <c r="B49">
+        <v>66.7</v>
+      </c>
+      <c r="C49">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="D49">
+        <v>66.7</v>
+      </c>
+      <c r="E49">
+        <v>66.125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="52">
+        <v>1997</v>
+      </c>
+      <c r="B50">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="C50">
+        <v>66.974999999999994</v>
+      </c>
+      <c r="D50">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="E50">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="52">
+        <v>1998</v>
+      </c>
+      <c r="B51">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="C51">
+        <v>66.949999999999989</v>
+      </c>
+      <c r="D51">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="E51">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="52">
+        <v>1999</v>
+      </c>
+      <c r="B52">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="C52">
+        <v>67.800000000000011</v>
+      </c>
+      <c r="D52">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="E52">
+        <v>67.849999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="52">
+        <v>2000</v>
+      </c>
+      <c r="B53">
+        <v>70.2</v>
+      </c>
+      <c r="C53">
+        <v>69.424999999999997</v>
+      </c>
+      <c r="D53">
+        <v>70.2</v>
+      </c>
+      <c r="E53">
+        <v>69.424999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="52">
+        <v>2001</v>
+      </c>
+      <c r="B54">
+        <v>74.5</v>
+      </c>
+      <c r="C54">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D54">
+        <v>74.5</v>
+      </c>
+      <c r="E54">
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="52">
+        <v>2002</v>
+      </c>
+      <c r="B55">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="C55">
+        <v>75.7</v>
+      </c>
+      <c r="D55">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="E55">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="52">
+        <v>2003</v>
+      </c>
+      <c r="B56">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="C56">
+        <v>77.974999999999994</v>
+      </c>
+      <c r="D56">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="E56">
+        <v>78.050000000000011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="52">
+        <v>2004</v>
+      </c>
+      <c r="B57">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="C57">
+        <v>79.849999999999994</v>
+      </c>
+      <c r="D57">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="E57">
+        <v>79.875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="52">
+        <v>2005</v>
+      </c>
+      <c r="B58">
+        <v>82.6</v>
+      </c>
+      <c r="C58">
+        <v>81.775000000000006</v>
+      </c>
+      <c r="D58">
+        <v>82.6</v>
+      </c>
+      <c r="E58">
+        <v>81.825000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="52">
+        <v>2006</v>
+      </c>
+      <c r="B59">
+        <v>85.9</v>
+      </c>
+      <c r="C59">
+        <v>84.4</v>
+      </c>
+      <c r="D59">
+        <v>85.9</v>
+      </c>
+      <c r="E59">
+        <v>84.45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="52">
+        <v>2007</v>
+      </c>
+      <c r="B60">
+        <v>87.7</v>
+      </c>
+      <c r="C60">
+        <v>86.899999999999991</v>
+      </c>
+      <c r="D60">
+        <v>87.7</v>
+      </c>
+      <c r="E60">
+        <v>86.924999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="52">
+        <v>2008</v>
+      </c>
+      <c r="B61">
+        <v>91.6</v>
+      </c>
+      <c r="C61">
+        <v>89.824999999999989</v>
+      </c>
+      <c r="D61">
+        <v>91.6</v>
+      </c>
+      <c r="E61">
+        <v>89.875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="52">
+        <v>2009</v>
+      </c>
+      <c r="B62">
+        <v>92.9</v>
+      </c>
+      <c r="C62">
+        <v>92.625</v>
+      </c>
+      <c r="D62">
+        <v>93</v>
+      </c>
+      <c r="E62">
+        <v>92.674999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="52">
+        <v>2010</v>
+      </c>
+      <c r="B63">
+        <v>95.8</v>
+      </c>
+      <c r="C63">
+        <v>94.775000000000006</v>
+      </c>
+      <c r="D63">
+        <v>95.8</v>
+      </c>
+      <c r="E63">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="52">
+        <v>2011</v>
+      </c>
+      <c r="B64">
+        <v>99.2</v>
+      </c>
+      <c r="C64">
+        <v>97.724999999999994</v>
+      </c>
+      <c r="D64">
+        <v>99.3</v>
+      </c>
+      <c r="E64">
+        <v>97.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="52">
+        <v>2012</v>
+      </c>
+      <c r="B65">
+        <v>100.4</v>
+      </c>
+      <c r="C65">
+        <v>99.974999999999994</v>
+      </c>
+      <c r="D65">
+        <v>100.5</v>
+      </c>
+      <c r="E65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="52">
+        <v>2013</v>
+      </c>
+      <c r="B66">
+        <v>102.8</v>
+      </c>
+      <c r="C66">
+        <v>102.25000000000001</v>
+      </c>
+      <c r="D66">
+        <v>102.9</v>
+      </c>
+      <c r="E66">
+        <v>102.22499999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="52">
+        <v>2014</v>
+      </c>
+      <c r="B67">
+        <v>105.9</v>
+      </c>
+      <c r="C67">
+        <v>105.02500000000001</v>
+      </c>
+      <c r="D67">
+        <v>106.1</v>
+      </c>
+      <c r="E67">
+        <v>105.05000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="52">
+        <v>2015</v>
+      </c>
+      <c r="B68">
+        <v>107.5</v>
+      </c>
+      <c r="C68">
+        <v>106.825</v>
+      </c>
+      <c r="D68">
+        <v>107.7</v>
+      </c>
+      <c r="E68">
+        <v>106.825</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="52">
+        <v>2016</v>
+      </c>
+      <c r="B69">
+        <v>108.6</v>
+      </c>
+      <c r="C69">
+        <v>108.30000000000001</v>
+      </c>
+      <c r="D69">
+        <v>108.8</v>
+      </c>
+      <c r="E69">
+        <v>108.27500000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="52">
+        <v>2017</v>
+      </c>
+      <c r="B70">
+        <v>110.7</v>
+      </c>
+      <c r="C70">
+        <v>110.14999999999999</v>
+      </c>
+      <c r="D70">
+        <v>110.9</v>
+      </c>
+      <c r="E70">
+        <v>110.125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="52">
+        <v>2018</v>
+      </c>
+      <c r="B71">
+        <v>113</v>
+      </c>
+      <c r="C71">
+        <v>112.27500000000001</v>
+      </c>
+      <c r="D71">
+        <v>113.2</v>
+      </c>
+      <c r="E71">
+        <v>112.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="52">
+        <v>2019</v>
+      </c>
+      <c r="B72">
+        <v>114.8</v>
+      </c>
+      <c r="C72">
+        <v>114.125</v>
+      </c>
+      <c r="D72">
+        <v>115</v>
+      </c>
+      <c r="E72">
+        <v>114.15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="52">
+        <v>2020</v>
+      </c>
+      <c r="B73">
+        <v>114.4</v>
+      </c>
+      <c r="C73">
+        <v>115.65</v>
+      </c>
+      <c r="D73">
+        <v>114.6</v>
+      </c>
+      <c r="E73">
+        <v>115.69999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F642F8-AD9D-E949-A77E-D3C9FC0A1058}">
   <dimension ref="A1:I99"/>
   <sheetViews>
@@ -4330,25 +6277,25 @@
       <c r="A2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="42">
         <v>5000000</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="42">
         <v>12000000</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="42">
-        <v>0</v>
-      </c>
-      <c r="H2" s="42">
+      <c r="G2" s="40">
+        <v>0</v>
+      </c>
+      <c r="H2" s="40">
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -4357,13 +6304,13 @@
     </row>
     <row r="3" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="43"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="5" t="s">
         <v>12</v>
       </c>
@@ -4865,25 +6812,25 @@
       <c r="A23" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="41" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="42">
         <v>117000000</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="42">
         <v>290000000</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="40">
         <v>6</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="H23" s="40" t="s">
         <v>62</v>
       </c>
       <c r="I23" s="5" t="s">
@@ -4894,15 +6841,15 @@
       <c r="A24" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="50"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="5" t="s">
         <v>64</v>
       </c>
@@ -4911,15 +6858,15 @@
       <c r="A25" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="5" t="s">
         <v>65</v>
       </c>
@@ -4928,29 +6875,29 @@
       <c r="A26" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -5110,65 +7057,65 @@
       <c r="A34" s="43">
         <v>30363</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="44" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="44">
+      <c r="D34" s="42">
         <v>418000</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="42">
         <v>1030000</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="40">
         <v>75</v>
       </c>
-      <c r="G34" s="42" t="s">
+      <c r="G34" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="40">
         <v>0</v>
       </c>
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="43"/>
-      <c r="B35" s="46"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="45"/>
     </row>
     <row r="36" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="43">
         <v>31041</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="44">
+      <c r="D36" s="42">
         <v>500000</v>
       </c>
-      <c r="E36" s="44">
+      <c r="E36" s="42">
         <v>1200000</v>
       </c>
-      <c r="F36" s="42">
-        <v>0</v>
-      </c>
-      <c r="G36" s="42">
-        <v>0</v>
-      </c>
-      <c r="H36" s="42">
+      <c r="F36" s="40">
+        <v>0</v>
+      </c>
+      <c r="G36" s="40">
+        <v>0</v>
+      </c>
+      <c r="H36" s="40">
         <v>0</v>
       </c>
       <c r="I36" s="5" t="s">
@@ -5177,13 +7124,13 @@
     </row>
     <row r="37" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="43"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="5" t="s">
         <v>78</v>
       </c>
@@ -5192,25 +7139,25 @@
       <c r="A38" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="44">
+      <c r="D38" s="42">
         <v>516000</v>
       </c>
-      <c r="E38" s="44">
+      <c r="E38" s="42">
         <v>1280000</v>
       </c>
-      <c r="F38" s="42">
-        <v>0</v>
-      </c>
-      <c r="G38" s="42">
-        <v>0</v>
-      </c>
-      <c r="H38" s="42">
+      <c r="F38" s="40">
+        <v>0</v>
+      </c>
+      <c r="G38" s="40">
+        <v>0</v>
+      </c>
+      <c r="H38" s="40">
         <v>0</v>
       </c>
       <c r="I38" s="5" t="s">
@@ -5219,40 +7166,40 @@
     </row>
     <row r="39" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="43"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
       <c r="I39" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="19" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="44">
+      <c r="D40" s="42">
         <v>3500000</v>
       </c>
-      <c r="E40" s="44">
+      <c r="E40" s="42">
         <v>8600000</v>
       </c>
-      <c r="F40" s="42">
+      <c r="F40" s="40">
         <v>5</v>
       </c>
-      <c r="G40" s="42">
-        <v>0</v>
-      </c>
-      <c r="H40" s="42">
+      <c r="G40" s="40">
+        <v>0</v>
+      </c>
+      <c r="H40" s="40">
         <v>0</v>
       </c>
       <c r="I40" s="5" t="s">
@@ -5260,14 +7207,14 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="19" x14ac:dyDescent="0.2">
-      <c r="A41" s="49"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="5" t="s">
         <v>78</v>
       </c>
@@ -5647,22 +7594,22 @@
       <c r="B56" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="44">
+      <c r="D56" s="42">
         <v>30000</v>
       </c>
-      <c r="E56" s="44">
+      <c r="E56" s="42">
         <v>74000</v>
       </c>
-      <c r="F56" s="42">
-        <v>0</v>
-      </c>
-      <c r="G56" s="42">
+      <c r="F56" s="40">
+        <v>0</v>
+      </c>
+      <c r="G56" s="40">
         <v>7</v>
       </c>
-      <c r="H56" s="42">
+      <c r="H56" s="40">
         <v>4</v>
       </c>
       <c r="I56" s="5" t="s">
@@ -5672,12 +7619,12 @@
     <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="43"/>
       <c r="B57" s="48"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
       <c r="I57" s="9" t="s">
         <v>111</v>
       </c>
@@ -5685,12 +7632,12 @@
     <row r="58" spans="1:9" ht="38" x14ac:dyDescent="0.2">
       <c r="A58" s="43"/>
       <c r="B58" s="48"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
       <c r="I58" s="5" t="s">
         <v>112</v>
       </c>
@@ -5758,22 +7705,22 @@
       <c r="B61" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="44">
+      <c r="D61" s="42">
         <v>9000</v>
       </c>
-      <c r="E61" s="44">
+      <c r="E61" s="42">
         <v>22000</v>
       </c>
-      <c r="F61" s="42">
-        <v>0</v>
-      </c>
-      <c r="G61" s="42">
-        <v>0</v>
-      </c>
-      <c r="H61" s="42">
+      <c r="F61" s="40">
+        <v>0</v>
+      </c>
+      <c r="G61" s="40">
+        <v>0</v>
+      </c>
+      <c r="H61" s="40">
         <v>2</v>
       </c>
       <c r="I61" s="5" t="s">
@@ -5783,12 +7730,12 @@
     <row r="62" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A62" s="43"/>
       <c r="B62" s="47"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
       <c r="I62" s="5" t="s">
         <v>119</v>
       </c>
@@ -5796,12 +7743,12 @@
     <row r="63" spans="1:9" ht="38" x14ac:dyDescent="0.2">
       <c r="A63" s="43"/>
       <c r="B63" s="47"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
       <c r="I63" s="5" t="s">
         <v>120</v>
       </c>
@@ -5837,79 +7784,79 @@
       <c r="A65" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="44" t="s">
         <v>124</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="44">
+      <c r="D65" s="42">
         <v>1360000</v>
       </c>
-      <c r="E65" s="44">
+      <c r="E65" s="42">
         <v>3400000</v>
       </c>
-      <c r="F65" s="42">
+      <c r="F65" s="40">
         <v>5</v>
       </c>
-      <c r="G65" s="42">
+      <c r="G65" s="40">
         <v>83</v>
       </c>
-      <c r="H65" s="42" t="s">
+      <c r="H65" s="40" t="s">
         <v>125</v>
       </c>
       <c r="I65" s="45"/>
     </row>
     <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="43"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
       <c r="I66" s="45"/>
     </row>
     <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="43"/>
-      <c r="B67" s="46"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
       <c r="I67" s="45"/>
     </row>
     <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="43"/>
-      <c r="B68" s="46"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
       <c r="I68" s="45"/>
     </row>
     <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="43"/>
-      <c r="B69" s="46"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
       <c r="I69" s="45"/>
     </row>
     <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -5970,25 +7917,25 @@
       <c r="A72" s="43">
         <v>39446</v>
       </c>
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="C72" s="42" t="s">
+      <c r="C72" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D72" s="44">
+      <c r="D72" s="42">
         <v>40000</v>
       </c>
-      <c r="E72" s="44">
+      <c r="E72" s="42">
         <v>99000</v>
       </c>
-      <c r="F72" s="42">
+      <c r="F72" s="40">
         <v>3</v>
       </c>
-      <c r="G72" s="42">
-        <v>0</v>
-      </c>
-      <c r="H72" s="42">
+      <c r="G72" s="40">
+        <v>0</v>
+      </c>
+      <c r="H72" s="40">
         <v>0</v>
       </c>
       <c r="I72" s="5" t="s">
@@ -5997,13 +7944,13 @@
     </row>
     <row r="73" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="43"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
       <c r="I73" s="9" t="s">
         <v>130</v>
       </c>
@@ -6066,25 +8013,25 @@
       <c r="A76" s="43">
         <v>41292</v>
       </c>
-      <c r="B76" s="42" t="s">
+      <c r="B76" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="C76" s="42" t="s">
+      <c r="C76" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="44">
+      <c r="D76" s="42">
         <v>54000</v>
       </c>
-      <c r="E76" s="44">
+      <c r="E76" s="42">
         <v>130000</v>
       </c>
-      <c r="F76" s="42">
-        <v>0</v>
-      </c>
-      <c r="G76" s="42">
+      <c r="F76" s="40">
+        <v>0</v>
+      </c>
+      <c r="G76" s="40">
         <v>53</v>
       </c>
-      <c r="H76" s="42">
+      <c r="H76" s="40">
         <v>118</v>
       </c>
       <c r="I76" s="5" t="s">
@@ -6093,13 +8040,13 @@
     </row>
     <row r="77" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="43"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
       <c r="I77" s="9" t="s">
         <v>136</v>
       </c>
@@ -6135,25 +8082,25 @@
       <c r="A79" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="C79" s="42" t="s">
+      <c r="C79" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="44">
+      <c r="D79" s="42">
         <v>800000</v>
       </c>
-      <c r="E79" s="44">
+      <c r="E79" s="42">
         <v>2000000</v>
       </c>
-      <c r="F79" s="42">
-        <v>0</v>
-      </c>
-      <c r="G79" s="42">
-        <v>0</v>
-      </c>
-      <c r="H79" s="42">
+      <c r="F79" s="40">
+        <v>0</v>
+      </c>
+      <c r="G79" s="40">
+        <v>0</v>
+      </c>
+      <c r="H79" s="40">
         <v>0</v>
       </c>
       <c r="I79" s="5" t="s">
@@ -6162,13 +8109,13 @@
     </row>
     <row r="80" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="43"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
       <c r="I80" s="10" t="s">
         <v>142</v>
       </c>
@@ -6233,25 +8180,25 @@
       <c r="A83" s="43">
         <v>42005</v>
       </c>
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="42" t="s">
+      <c r="C83" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="44">
+      <c r="D83" s="42">
         <v>52373</v>
       </c>
-      <c r="E83" s="44">
+      <c r="E83" s="42">
         <v>129420</v>
       </c>
-      <c r="F83" s="42">
-        <v>0</v>
-      </c>
-      <c r="G83" s="42">
+      <c r="F83" s="40">
+        <v>0</v>
+      </c>
+      <c r="G83" s="40">
         <v>1</v>
       </c>
-      <c r="H83" s="42">
+      <c r="H83" s="40">
         <v>1</v>
       </c>
       <c r="I83" s="5" t="s">
@@ -6260,13 +8207,13 @@
     </row>
     <row r="84" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A84" s="43"/>
-      <c r="B84" s="46"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="42"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
       <c r="I84" s="5" t="s">
         <v>150</v>
       </c>
@@ -6302,25 +8249,25 @@
       <c r="A86" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="B86" s="46" t="s">
+      <c r="B86" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="C86" s="42" t="s">
+      <c r="C86" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D86" s="44">
+      <c r="D86" s="42">
         <v>200000</v>
       </c>
-      <c r="E86" s="44">
+      <c r="E86" s="42">
         <v>490000</v>
       </c>
-      <c r="F86" s="42">
+      <c r="F86" s="40">
         <v>4</v>
       </c>
-      <c r="G86" s="42">
+      <c r="G86" s="40">
         <v>10</v>
       </c>
-      <c r="H86" s="42">
+      <c r="H86" s="40">
         <v>0</v>
       </c>
       <c r="I86" s="5" t="s">
@@ -6329,26 +8276,26 @@
     </row>
     <row r="87" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A87" s="43"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="42"/>
-      <c r="H87" s="42"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
       <c r="I87" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="43"/>
-      <c r="B88" s="46"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
       <c r="I88" s="9" t="s">
         <v>157</v>
       </c>
@@ -6413,25 +8360,25 @@
       <c r="A91" s="43">
         <v>42370</v>
       </c>
-      <c r="B91" s="42" t="s">
+      <c r="B91" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="42" t="s">
+      <c r="C91" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="44">
+      <c r="D91" s="42">
         <v>69165</v>
       </c>
-      <c r="E91" s="44">
+      <c r="E91" s="42">
         <v>170910</v>
       </c>
-      <c r="F91" s="42">
+      <c r="F91" s="40">
         <v>2</v>
       </c>
-      <c r="G91" s="42">
+      <c r="G91" s="40">
         <v>181</v>
       </c>
-      <c r="H91" s="46" t="s">
+      <c r="H91" s="44" t="s">
         <v>164</v>
       </c>
       <c r="I91" s="5" t="s">
@@ -6440,13 +8387,13 @@
     </row>
     <row r="92" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A92" s="43"/>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="42"/>
-      <c r="H92" s="46"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="44"/>
       <c r="I92" s="5" t="s">
         <v>166</v>
       </c>
@@ -6482,25 +8429,25 @@
       <c r="A94" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="B94" s="46" t="s">
+      <c r="B94" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="C94" s="42" t="s">
+      <c r="C94" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="44">
+      <c r="D94" s="42">
         <v>23419</v>
       </c>
-      <c r="E94" s="44">
+      <c r="E94" s="42">
         <v>57870</v>
       </c>
-      <c r="F94" s="42">
-        <v>0</v>
-      </c>
-      <c r="G94" s="42">
+      <c r="F94" s="40">
+        <v>0</v>
+      </c>
+      <c r="G94" s="40">
         <v>19</v>
       </c>
-      <c r="H94" s="42">
+      <c r="H94" s="40">
         <v>57</v>
       </c>
       <c r="I94" s="5" t="s">
@@ -6509,13 +8456,13 @@
     </row>
     <row r="95" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A95" s="43"/>
-      <c r="B95" s="46"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="42"/>
-      <c r="H95" s="42"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
       <c r="I95" s="5" t="s">
         <v>6</v>
       </c>
@@ -6553,19 +8500,19 @@
       <c r="A97" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="B97" s="42" t="s">
+      <c r="B97" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="C97" s="42" t="s">
+      <c r="C97" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="D97" s="44">
+      <c r="D97" s="42">
         <v>250000</v>
       </c>
-      <c r="E97" s="44">
+      <c r="E97" s="42">
         <v>617763</v>
       </c>
-      <c r="F97" s="42">
+      <c r="F97" s="40">
         <v>0</v>
       </c>
       <c r="G97" s="6" t="s">
@@ -6580,11 +8527,11 @@
     </row>
     <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="43"/>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="44"/>
-      <c r="F98" s="42"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="40"/>
       <c r="G98" s="6" t="s">
         <v>181</v>
       </c>
@@ -6592,11 +8539,11 @@
     </row>
     <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="43"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="42"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="40"/>
       <c r="H99" s="6" t="s">
         <v>183</v>
       </c>
@@ -6604,116 +8551,6 @@
     </row>
   </sheetData>
   <mergeCells count="133">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="E23:E27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I65:I69"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="F65:F69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="H65:H69"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
     <mergeCell ref="H94:H95"/>
     <mergeCell ref="A97:A99"/>
     <mergeCell ref="B97:B99"/>
@@ -6737,6 +8574,116 @@
     <mergeCell ref="D91:D92"/>
     <mergeCell ref="E91:E92"/>
     <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:H69"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="E23:E27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
